--- a/nwm_land_use_mappings.xlsx
+++ b/nwm_land_use_mappings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\wrfhydroSubsetter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C119F673-07E1-4CB9-8195-187FE10FC3C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDF5F1F-2168-481F-98EB-764DE186B16A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22935" yWindow="345" windowWidth="23250" windowHeight="12720" xr2:uid="{6CE1169C-C5FC-4D9B-93DE-1BABAC489135}"/>
+    <workbookView xWindow="22935" yWindow="1245" windowWidth="23250" windowHeight="12720" xr2:uid="{6CE1169C-C5FC-4D9B-93DE-1BABAC489135}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -661,7 +661,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
